--- a/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
+++ b/InputData/land/CApULAbIFM/CO2 Abated per Unit Land Area by Impr For Mgmt.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="315" windowWidth="18825" windowHeight="6555"/>
@@ -11,56 +11,38 @@
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
     <sheet name="CApULAbIFM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CApULAbIFM CO2 Abated per Unit Land Area by Improved Forest Management</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
     <t>CO2 Abated (g)</t>
   </si>
   <si>
     <t>Per Acre</t>
   </si>
   <si>
-    <t>Increased Annual CO2 Sequestration Achievable by Improved Management Practices per Acre</t>
-  </si>
-  <si>
-    <t>tons CO2 / acre / yr</t>
-  </si>
-  <si>
-    <t>Low Estimate</t>
-  </si>
-  <si>
-    <t>High Estimate</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>g CO2 / acre / yr</t>
-  </si>
-  <si>
-    <t>Average, converted to grams CO2</t>
-  </si>
-  <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Greenhouse Gas Mitigation Potential in U.S. Forestry and Agriculture</t>
-  </si>
-  <si>
-    <t>http://www.epa.gov/climate/climatechange/Downloads/ccs/ghg_mitigation_forestry_ag_2005.pdf</t>
-  </si>
-  <si>
-    <t>Page 2-3, Table 2-1</t>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In general, the problem of CO2 emissions in Brazil is not linked to the exploitation </t>
+  </si>
+  <si>
+    <t>of native forests, but to their deforestation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policies aimed at reducing the impact of exploration, via ‘set aside’ and </t>
+  </si>
+  <si>
+    <t>‘Improved Forest Management’ for native, or even exotic planted forests, are not very compatible here.</t>
+  </si>
+  <si>
+    <t>Therefore, this variable is not used in the Brazilian version.</t>
   </si>
 </sst>
 </file>
@@ -113,7 +95,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -124,9 +106,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -140,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -252,7 +237,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -439,109 +426,64 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="4">
-        <v>2005</v>
-      </c>
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>12</v>
+      <c r="A5" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2.1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3.1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>AVERAGE(A2:A3)</f>
-        <v>2.6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>A4*10^6</f>
-        <v>2600000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -555,7 +497,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -564,16 +508,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>Calculations!A6</f>
-        <v>2600000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
